--- a/downloaded_files/CMPS201_Tutorial-35766.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35766.xlsx
@@ -1671,7 +1671,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6720357292</x:v>
+        <x:v>45921.9668216782</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>

--- a/downloaded_files/CMPS201_Tutorial-35766.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35766.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -234,12 +234,6 @@
     <x:t>Kenzie Ahmed Hussein</x:t>
   </x:si>
   <x:si>
-    <x:t>1230323</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كيرلس ناصر عدلى سلامة</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240145</x:t>
   </x:si>
   <x:si>
@@ -265,15 +259,6 @@
   </x:si>
   <x:si>
     <x:t>MALAK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230279</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ولى الدين احمد حسين محمود عثمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waleyeldeen Ahmed Hussein Mahmoud Othman</x:t>
   </x:si>
   <x:si>
     <x:t>1230130</x:t>
@@ -422,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -722,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1541,9 +1526,11 @@
       <x:c r="C25" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s"/>
+      <x:c r="D25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4295856481</x:v>
+        <x:v>45914.5609771181</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,16 +1553,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.5609771181</x:v>
+        <x:v>45907.4200846412</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,16 +1585,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4200846412</x:v>
+        <x:v>45909.4148729514</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,16 +1617,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4148729514</x:v>
+        <x:v>45909.4148810185</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,16 +1649,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
+      <x:c r="D29" s="2" t="s"/>
       <x:c r="E29" s="3">
-        <x:v>45921.9668216782</x:v>
+        <x:v>45914.5617886921</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1688,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.4148810185</x:v>
+        <x:v>45909.4148199884</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1731,9 +1716,11 @@
       <x:c r="C31" s="2" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s"/>
+      <x:c r="D31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.5617886921</x:v>
+        <x:v>45907.4289222569</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1750,70 +1737,6 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:20">
-      <x:c r="A32" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B32" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C32" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="E32" s="3">
-        <x:v>45909.4148199884</x:v>
-      </x:c>
-      <x:c r="F32" s="2" t="s"/>
-      <x:c r="G32" s="2" t="s"/>
-      <x:c r="H32" s="2" t="s"/>
-      <x:c r="I32" s="2" t="s"/>
-      <x:c r="J32" s="2" t="s"/>
-      <x:c r="K32" s="2" t="s"/>
-      <x:c r="L32" s="2" t="s"/>
-      <x:c r="M32" s="2" t="s"/>
-      <x:c r="N32" s="2" t="s"/>
-      <x:c r="O32" s="2" t="s"/>
-      <x:c r="P32" s="2" t="s"/>
-      <x:c r="Q32" s="2" t="s"/>
-      <x:c r="R32" s="2" t="s"/>
-      <x:c r="S32" s="2" t="s"/>
-      <x:c r="T32" s="2" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45907.4289222569</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Tutorial-35766.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35766.xlsx
@@ -1743,11 +1743,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Microprocessor Systems (CMPS201) Location : [20427]20427-32-الجيزة الرئيسي Time : Thursday(16:19)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Microprocessor Systems (CMPS201) Location : [3706]3706-45-الجيزة الرئيسي Time : Thursday(16:19)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Microprocessor Systems (CMPS201) Location : [20427]20427-32-الجيزة الرئيسي Time : Thursday(16:19)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Microprocessor Systems (CMPS201) Location : [3706]3706-45-الجيزة الرئيسي Time : Thursday(16:19)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Microprocessor Systems (CMPS201) Location : [20427]20427-32-الجيزة الرئيسي Time : Thursday(16:19)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Microprocessor Systems (CMPS201) Location : [3706]3706-45-الجيزة الرئيسي Time : Thursday(16:19)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/CMPS201_Tutorial-35766.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35766.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1230153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد شريف حمدى عبدالله</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ِAhmed Sherif Hamdi Abdullah</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230008</x:t>
   </x:si>
   <x:si>
@@ -78,6 +69,15 @@
     <x:t>osama said elnaggar</x:t>
   </x:si>
   <x:si>
+    <x:t>1230162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>امير ضياء الدين ابو العلا حمزه جيره الله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amir</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230174</x:t>
   </x:si>
   <x:si>
@@ -232,15 +232,6 @@
   </x:si>
   <x:si>
     <x:t>Kenzie Ahmed Hussein</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240145</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مروان ايهاب السيد محمد ابو دنيا</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marawan Ehab Elsayed Abo Donia</x:t>
   </x:si>
   <x:si>
     <x:t>1230262</x:t>
@@ -407,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -798,7 +789,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45914.5763670486</x:v>
+        <x:v>45907.4142915162</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -830,7 +821,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4142915162</x:v>
+        <x:v>45914.5724240741</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -862,7 +853,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45914.5724240741</x:v>
+        <x:v>45916.6594315162</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -894,7 +885,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45916.6594315162</x:v>
+        <x:v>45907.4144651968</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -926,7 +917,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4144651968</x:v>
+        <x:v>45927.4162983796</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -990,7 +981,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.4575351852</x:v>
+        <x:v>45927.4545769329</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1498,7 +1489,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.6127698264</x:v>
+        <x:v>45927.4334084491</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1530,7 +1521,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.5609771181</x:v>
+        <x:v>45907.4200846412</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1562,7 +1553,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4200846412</x:v>
+        <x:v>45909.4148729514</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1594,7 +1585,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4148729514</x:v>
+        <x:v>45909.4148810185</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1622,11 +1613,9 @@
       <x:c r="C28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
+      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45909.4148810185</x:v>
+        <x:v>45914.5617886921</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1649,14 +1638,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s"/>
       <x:c r="E29" s="3">
-        <x:v>45914.5617886921</x:v>
+        <x:v>45909.4148199884</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1688,7 +1679,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.4148199884</x:v>
+        <x:v>45907.4289222569</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1705,38 +1696,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45907.4289222569</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Tutorial-35766.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35766.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد شريف حمدى عبدالله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ِAhmed Sherif Hamdi Abdullah</x:t>
   </x:si>
   <x:si>
     <x:t>1230008</x:t>
@@ -398,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -789,7 +798,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.4142915162</x:v>
+        <x:v>45928.0423207176</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -821,7 +830,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45914.5724240741</x:v>
+        <x:v>45907.4142915162</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -853,7 +862,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45916.6594315162</x:v>
+        <x:v>45914.5724240741</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -885,7 +894,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4144651968</x:v>
+        <x:v>45916.6594315162</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -917,7 +926,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.4162983796</x:v>
+        <x:v>45907.4144651968</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -949,7 +958,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4166763542</x:v>
+        <x:v>45927.4162983796</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -981,7 +990,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.4545769329</x:v>
+        <x:v>45907.4166763542</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1013,7 +1022,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.574519213</x:v>
+        <x:v>45927.4545769329</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1045,7 +1054,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4323649306</x:v>
+        <x:v>45914.574519213</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1077,7 +1086,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4152705671</x:v>
+        <x:v>45909.4323649306</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1105,9 +1114,11 @@
       <x:c r="C12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s"/>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4224167824</x:v>
+        <x:v>45909.4152705671</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1130,16 +1141,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45909.4706523958</x:v>
+        <x:v>45907.4224167824</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1171,7 +1180,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.419865544</x:v>
+        <x:v>45909.4706523958</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1203,7 +1212,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.5736265856</x:v>
+        <x:v>45907.419865544</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1235,7 +1244,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.6638215278</x:v>
+        <x:v>45914.5736265856</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1267,7 +1276,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4143725694</x:v>
+        <x:v>45909.6638215278</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1299,7 +1308,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.5727941319</x:v>
+        <x:v>45906.4143725694</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1331,7 +1340,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.8528914352</x:v>
+        <x:v>45914.5727941319</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1363,7 +1372,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6791894329</x:v>
+        <x:v>45909.8528914352</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1391,9 +1400,11 @@
       <x:c r="C21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s"/>
+      <x:c r="D21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45913.8035849537</x:v>
+        <x:v>45907.6791894329</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1416,16 +1427,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
+      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45914.5635345255</x:v>
+        <x:v>45913.8035849537</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1457,7 +1466,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4234258912</x:v>
+        <x:v>45914.5635345255</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1489,7 +1498,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4334084491</x:v>
+        <x:v>45907.4234258912</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1521,7 +1530,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4200846412</x:v>
+        <x:v>45927.4334084491</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1553,7 +1562,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4148729514</x:v>
+        <x:v>45907.4200846412</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1585,7 +1594,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4148810185</x:v>
+        <x:v>45909.4148729514</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1613,9 +1622,11 @@
       <x:c r="C28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s"/>
+      <x:c r="D28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.5617886921</x:v>
+        <x:v>45909.4148810185</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1638,16 +1649,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
+      <x:c r="D29" s="2" t="s"/>
       <x:c r="E29" s="3">
-        <x:v>45909.4148199884</x:v>
+        <x:v>45914.5617886921</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1679,7 +1688,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4289222569</x:v>
+        <x:v>45909.4148199884</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1696,6 +1705,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45907.4289222569</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Tutorial-35766.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35766.xlsx
@@ -798,7 +798,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45928.0423207176</x:v>
+        <x:v>45929.3856515046</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>

--- a/downloaded_files/CMPS201_Tutorial-35766.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35766.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,15 +112,6 @@
   </x:si>
   <x:si>
     <x:t>Darine Sherif Mohamad Sobhy Elfeel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230319</x:t>
-  </x:si>
-  <x:si>
-    <x:t>روفانا عماد سمير ميشيل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rovana Emad Samir Micheal</x:t>
   </x:si>
   <x:si>
     <x:t>1230034</x:t>
@@ -407,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1086,7 +1077,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4323649306</x:v>
+        <x:v>45909.4152705671</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1114,11 +1105,9 @@
       <x:c r="C12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
+      <x:c r="D12" s="2" t="s"/>
       <x:c r="E12" s="3">
-        <x:v>45909.4152705671</x:v>
+        <x:v>45907.4224167824</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1141,14 +1130,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45907.4224167824</x:v>
+        <x:v>45909.4706523958</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1180,7 +1171,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4706523958</x:v>
+        <x:v>45907.419865544</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1212,7 +1203,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.419865544</x:v>
+        <x:v>45914.5736265856</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1244,7 +1235,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.5736265856</x:v>
+        <x:v>45909.6638215278</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1276,7 +1267,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.6638215278</x:v>
+        <x:v>45906.4143725694</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1308,7 +1299,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4143725694</x:v>
+        <x:v>45914.5727941319</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1340,7 +1331,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.5727941319</x:v>
+        <x:v>45909.8528914352</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1372,7 +1363,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.8528914352</x:v>
+        <x:v>45907.6791894329</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1400,11 +1391,9 @@
       <x:c r="C21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45907.6791894329</x:v>
+        <x:v>45913.8035849537</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1427,14 +1416,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45913.8035849537</x:v>
+        <x:v>45914.5635345255</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1466,7 +1457,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.5635345255</x:v>
+        <x:v>45907.4234258912</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1498,7 +1489,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4234258912</x:v>
+        <x:v>45927.4334084491</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1530,7 +1521,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.4334084491</x:v>
+        <x:v>45907.4200846412</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1562,7 +1553,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4200846412</x:v>
+        <x:v>45909.4148729514</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1594,7 +1585,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4148729514</x:v>
+        <x:v>45909.4148810185</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1622,11 +1613,9 @@
       <x:c r="C28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
+      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45909.4148810185</x:v>
+        <x:v>45914.5617886921</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1649,14 +1638,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s"/>
       <x:c r="E29" s="3">
-        <x:v>45914.5617886921</x:v>
+        <x:v>45909.4148199884</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1688,7 +1679,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.4148199884</x:v>
+        <x:v>45907.4289222569</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1705,38 +1696,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45907.4289222569</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Tutorial-35766.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35766.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -241,15 +241,6 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Yasser Mohammed Mohammed Amin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230307</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ملك هاني يسري عزو</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MALAK</x:t>
   </x:si>
   <x:si>
     <x:t>1230130</x:t>
@@ -398,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1553,7 +1544,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4148729514</x:v>
+        <x:v>45909.4148810185</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1581,11 +1572,9 @@
       <x:c r="C27" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
+      <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
-        <x:v>45909.4148810185</x:v>
+        <x:v>45914.5617886921</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1608,14 +1597,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45914.5617886921</x:v>
+        <x:v>45909.4148199884</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1647,7 +1638,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.4148199884</x:v>
+        <x:v>45907.4289222569</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1664,38 +1655,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45907.4289222569</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Tutorial-35766.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35766.xlsx
@@ -162,7 +162,7 @@
     <x:t>عبدالرحمن خالد محمد فصيح</x:t>
   </x:si>
   <x:si>
-    <x:t>Abd Elrahman Khaled Mohamed</x:t>
+    <x:t>Abd Elrahman Khaled Mohamed Faseeh</x:t>
   </x:si>
   <x:si>
     <x:t>1190372</x:t>
@@ -219,10 +219,10 @@
     <x:t>1230226</x:t>
   </x:si>
   <x:si>
-    <x:t>كريم طارق عبد الله عبد الحليم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Karim Tarek Abdalla</x:t>
+    <x:t>كريم طارق عبد الله عبد الحليم عبدالمنعم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim Tarek Abdullah Abdelhalim Abdelmonem</x:t>
   </x:si>
   <x:si>
     <x:t>1230083</x:t>
@@ -264,7 +264,7 @@
     <x:t>يوسف ناصر سيد منسي ابراهيم</x:t>
   </x:si>
   <x:si>
-    <x:t>Youssef Nasser Sayed Mansy</x:t>
+    <x:t>YOUSSEF NASSER SAYED MANSY IBRAHIM</x:t>
   </x:si>
   <x:si>
     <x:t>1230293</x:t>
